--- a/Proyecto_2/Documentación/Tablas SubNetting.xlsx
+++ b/Proyecto_2/Documentación/Tablas SubNetting.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\FIUSAC\11vo. Semestre\Redes de Computadoras 1\Laboratorio\Redes1_grupo7\Proyecto_2\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F43CD-A58A-4235-98C1-69C93E4559DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBEBAD-01B2-428A-B076-1C243235DDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2D4ABFD-97DA-4EDE-BF0B-35FD234D1F21}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B2D4ABFD-97DA-4EDE-BF0B-35FD234D1F21}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="2" r:id="rId1"/>
     <sheet name="T2" sheetId="3" r:id="rId2"/>
+    <sheet name="T3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>DIRECCIÓN DE RED</t>
   </si>
@@ -238,6 +239,18 @@
   </si>
   <si>
     <t>192.168.47.7</t>
+  </si>
+  <si>
+    <t>192.168.75.0</t>
+  </si>
+  <si>
+    <t>192.168.75.1</t>
+  </si>
+  <si>
+    <t>192.168.75.6</t>
+  </si>
+  <si>
+    <t>192.168.75.7</t>
   </si>
 </sst>
 </file>
@@ -296,7 +309,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="48">
     <dxf>
       <font>
         <b val="0"/>
@@ -687,43 +700,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto Slab Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto Slab Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Roboto Slab Light"/>
         <scheme val="none"/>
       </font>
@@ -764,6 +741,330 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto Slab Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -887,60 +1188,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ABDE688-298F-4316-A2A6-E80B786BF383}" name="Tabla2" displayName="Tabla2" ref="A1:G6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ABDE688-298F-4316-A2A6-E80B786BF383}" name="Tabla2" displayName="Tabla2" ref="A1:G6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:G6" xr:uid="{7ABDE688-298F-4316-A2A6-E80B786BF383}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{07461FEF-616E-4DC3-BDD0-14FFE212B72F}" name="DIRECCIÓN DE RED" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9568EEDA-4F39-4BB5-9619-A9B05BA75F03}" name="MASCARA DE RED" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{924B09BA-C425-4EAF-A775-C3C7EC324687}" name="PRIMERA IP ASIGNABLE" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{1DFA637B-980D-4644-9575-43F36DF989E1}" name="ÚLTIMA IP ASIGNABLE" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{32EED7E0-86D4-4894-A8DD-2639CCDBF89B}" name="DIRECCIÓN DE BROADCAST" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{7E3DE697-36DA-495F-9497-AE4EFC4161C8}" name="TOTAL HOST" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{1E4A4DD4-B766-4E26-941C-60F28D9DCB03}" name="CANTIDAD DE HOST" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{07461FEF-616E-4DC3-BDD0-14FFE212B72F}" name="DIRECCIÓN DE RED" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{9568EEDA-4F39-4BB5-9619-A9B05BA75F03}" name="MASCARA DE RED" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{924B09BA-C425-4EAF-A775-C3C7EC324687}" name="PRIMERA IP ASIGNABLE" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{1DFA637B-980D-4644-9575-43F36DF989E1}" name="ÚLTIMA IP ASIGNABLE" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{32EED7E0-86D4-4894-A8DD-2639CCDBF89B}" name="DIRECCIÓN DE BROADCAST" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{7E3DE697-36DA-495F-9497-AE4EFC4161C8}" name="TOTAL HOST" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{1E4A4DD4-B766-4E26-941C-60F28D9DCB03}" name="CANTIDAD DE HOST" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}" name="Tabla3" displayName="Tabla3" ref="A8:E16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}" name="Tabla3" displayName="Tabla3" ref="A8:E16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A8:E16" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D3E6C433-CF11-4772-9164-17E64162CF2D}" name="DISPOSITIVO" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F518E47D-3C47-421E-9B05-8D6C895C7EA2}" name="INTERFAZ" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{4BB6DFC5-9E40-4AA0-96B5-72E5C36B2400}" name="DIRECCIÓN IP" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{0207307D-D5E7-4031-ADC7-73509905B208}" name="MASCARA DE RED" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{34FB7826-46E9-405B-BA4E-A8EE2C9E7E5C}" name="GATEWAY" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D3E6C433-CF11-4772-9164-17E64162CF2D}" name="DISPOSITIVO" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{F518E47D-3C47-421E-9B05-8D6C895C7EA2}" name="INTERFAZ" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{4BB6DFC5-9E40-4AA0-96B5-72E5C36B2400}" name="DIRECCIÓN IP" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{0207307D-D5E7-4031-ADC7-73509905B208}" name="MASCARA DE RED" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{34FB7826-46E9-405B-BA4E-A8EE2C9E7E5C}" name="GATEWAY" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE0319B0-FB88-4132-B733-BB6DE3976E79}" name="Tabla25" displayName="Tabla25" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE0319B0-FB88-4132-B733-BB6DE3976E79}" name="Tabla25" displayName="Tabla25" ref="A1:G2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:G2" xr:uid="{7ABDE688-298F-4316-A2A6-E80B786BF383}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0E0B9295-DF95-4039-A757-F830D8B0DB27}" name="DIRECCIÓN DE RED" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1BED334B-8D92-48A8-B8F6-8F0688E1EF73}" name="MASCARA DE RED" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C0C647D0-7905-4F9D-AF47-6D4D5104C7E6}" name="PRIMERA IP ASIGNABLE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8BABB86D-42EA-4CDD-ABED-978B6A51C826}" name="ÚLTIMA IP ASIGNABLE" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{138FEB55-2F4D-4522-AC58-896D8F74BD86}" name="DIRECCIÓN DE BROADCAST" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{BD518B28-8D33-4ED3-898D-AFB4BD2FEFC4}" name="TOTAL HOST" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C3DC5DAE-7DC2-4986-8380-EEC395139D44}" name="CANTIDAD DE HOST" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0E0B9295-DF95-4039-A757-F830D8B0DB27}" name="DIRECCIÓN DE RED" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{1BED334B-8D92-48A8-B8F6-8F0688E1EF73}" name="MASCARA DE RED" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{C0C647D0-7905-4F9D-AF47-6D4D5104C7E6}" name="PRIMERA IP ASIGNABLE" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8BABB86D-42EA-4CDD-ABED-978B6A51C826}" name="ÚLTIMA IP ASIGNABLE" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{138FEB55-2F4D-4522-AC58-896D8F74BD86}" name="DIRECCIÓN DE BROADCAST" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{BD518B28-8D33-4ED3-898D-AFB4BD2FEFC4}" name="TOTAL HOST" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{C3DC5DAE-7DC2-4986-8380-EEC395139D44}" name="CANTIDAD DE HOST" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C0C327B-786A-46FB-B057-74BC440C47CD}" name="Tabla36" displayName="Tabla36" ref="A4:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C0C327B-786A-46FB-B057-74BC440C47CD}" name="Tabla36" displayName="Tabla36" ref="A4:E11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A4:E11" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{65BD75BF-D471-41B9-A156-2A5D003DFAF2}" name="DISPOSITIVO" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AC737BE9-D9B8-48AE-A591-6A682257612D}" name="INTERFAZ" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{25DCA506-DD74-4B63-B8F9-63DF251A76F1}" name="DIRECCIÓN IP" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E7B35C7C-F669-45BD-939B-B37A9650E81A}" name="MASCARA DE RED" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{363B7BCE-983D-452E-BCB2-6436E85CE6A7}" name="GATEWAY" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{65BD75BF-D471-41B9-A156-2A5D003DFAF2}" name="DISPOSITIVO" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{AC737BE9-D9B8-48AE-A591-6A682257612D}" name="INTERFAZ" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{25DCA506-DD74-4B63-B8F9-63DF251A76F1}" name="DIRECCIÓN IP" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E7B35C7C-F669-45BD-939B-B37A9650E81A}" name="MASCARA DE RED" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{363B7BCE-983D-452E-BCB2-6436E85CE6A7}" name="GATEWAY" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73A66A96-B768-4C8F-80DE-ACD2BEC1F454}" name="Tabla252" displayName="Tabla252" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:G2" xr:uid="{7ABDE688-298F-4316-A2A6-E80B786BF383}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DB459C06-1868-4347-A490-A813287630C9}" name="DIRECCIÓN DE RED" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DC3B1681-3DD8-4314-8BB8-620115FD330A}" name="MASCARA DE RED" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E1EF04F0-F9CC-43F6-A63D-D48F34A52BFC}" name="PRIMERA IP ASIGNABLE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{32032CD3-7DC7-456A-B5A3-D782A406539B}" name="ÚLTIMA IP ASIGNABLE" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{94C70DAD-5B2E-4D9E-92BA-071CF1A5C48D}" name="DIRECCIÓN DE BROADCAST" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8FEA1668-56EB-430F-B95F-A97EA33AB5D4}" name="TOTAL HOST" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E28AFEE5-6CB1-43E2-AD2C-8D86DFC8D861}" name="CANTIDAD DE HOST" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AD685049-4A27-4962-A06A-1662960B2B04}" name="Tabla367" displayName="Tabla367" ref="A4:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A4:E11" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DCE3B794-3F89-4600-AEF6-6193C7AAEA5F}" name="DISPOSITIVO" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{803DFBB0-FFEE-4813-BA66-6127E7AACD64}" name="INTERFAZ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{28AD180D-A76B-4664-9C45-946D8075E1F7}" name="DIRECCIÓN IP" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A532AAD-F57A-4BDE-B5B1-AC504F199197}" name="MASCARA DE RED" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9E0BE6EE-F73D-46E7-A680-7C15AC175722}" name="GATEWAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74194E1-84C7-4F53-B947-A27C07CC3A14}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1793,4 +2124,220 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2126BB-E58C-41B8-970B-D704CE141F80}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Proyecto_2/Documentación/Tablas SubNetting.xlsx
+++ b/Proyecto_2/Documentación/Tablas SubNetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\FIUSAC\11vo. Semestre\Redes de Computadoras 1\Laboratorio\Redes1_grupo7\Proyecto_2\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBEBAD-01B2-428A-B076-1C243235DDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73888BE1-6D6C-4885-BE02-EF67D2C2EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{B2D4ABFD-97DA-4EDE-BF0B-35FD234D1F21}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>DIRECCIÓN DE RED</t>
   </si>
@@ -208,21 +208,6 @@
     <t>E0</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>192.168.47.2</t>
   </si>
   <si>
@@ -251,13 +236,37 @@
   </si>
   <si>
     <t>192.168.75.7</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>192.168.75.2</t>
+  </si>
+  <si>
+    <t>192.168.75.3</t>
+  </si>
+  <si>
+    <t>192.168.75.4</t>
+  </si>
+  <si>
+    <t>192.168.75.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto Slab Light"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,13 +312,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,8 +1252,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C0C327B-786A-46FB-B057-74BC440C47CD}" name="Tabla36" displayName="Tabla36" ref="A4:E11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A4:E11" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C0C327B-786A-46FB-B057-74BC440C47CD}" name="Tabla36" displayName="Tabla36" ref="A4:E13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A4:E13" xr:uid="{8865F13D-A1D0-4197-9F94-0E0857E15DE9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{65BD75BF-D471-41B9-A156-2A5D003DFAF2}" name="DISPOSITIVO" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{AC737BE9-D9B8-48AE-A591-6A682257612D}" name="INTERFAZ" dataDxfId="19"/>
@@ -1577,7 +1595,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1911,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2077DB5D-D960-4DEB-87C1-2D5DB1E401C6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2001,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
@@ -2015,47 +2033,47 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -2066,13 +2084,13 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>44</v>
@@ -2083,13 +2101,13 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>44</v>
@@ -2100,18 +2118,52 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2128,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2126BB-E58C-41B8-970B-D704CE141F80}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2172,19 +2224,19 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -2218,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
@@ -2232,107 +2284,111 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
